--- a/data/meta-volume/raw-data.xlsx
+++ b/data/meta-volume/raw-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706194\projects\training-variables-meta\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706194\projects\thesis\data\meta-volume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D89EBA-7738-4757-9AA9-7A7E19BD90C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD7E328-1FD9-428E-990B-29BB545F08B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="1740" windowWidth="27900" windowHeight="11385" xr2:uid="{06143449-0DB0-4BF7-9365-E9049C377F41}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06143449-0DB0-4BF7-9365-E9049C377F41}"/>
   </bookViews>
   <sheets>
     <sheet name="LongForm" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7886" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7920" uniqueCount="391">
   <si>
     <t>study</t>
   </si>
@@ -1634,10 +1634,10 @@
   <dimension ref="A1:AW377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="U324" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A375" sqref="A375:XFD375"/>
+      <selection pane="bottomRight" activeCell="AA349" sqref="AA349:AA374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39482,6 +39482,9 @@
       <c r="Z341" t="s">
         <v>297</v>
       </c>
+      <c r="AA341" t="s">
+        <v>358</v>
+      </c>
       <c r="AB341">
         <v>2</v>
       </c>
@@ -39589,6 +39592,9 @@
       <c r="Z342" t="s">
         <v>297</v>
       </c>
+      <c r="AA342" t="s">
+        <v>358</v>
+      </c>
       <c r="AB342">
         <v>2</v>
       </c>
@@ -39696,6 +39702,9 @@
       <c r="Z343" t="s">
         <v>297</v>
       </c>
+      <c r="AA343" t="s">
+        <v>358</v>
+      </c>
       <c r="AB343">
         <v>2</v>
       </c>
@@ -39803,6 +39812,9 @@
       <c r="Z344" t="s">
         <v>330</v>
       </c>
+      <c r="AA344" t="s">
+        <v>357</v>
+      </c>
       <c r="AB344">
         <v>2</v>
       </c>
@@ -39910,6 +39922,9 @@
       <c r="Z345" t="s">
         <v>330</v>
       </c>
+      <c r="AA345" t="s">
+        <v>357</v>
+      </c>
       <c r="AB345">
         <v>2</v>
       </c>
@@ -40017,6 +40032,9 @@
       <c r="Z346" t="s">
         <v>330</v>
       </c>
+      <c r="AA346" t="s">
+        <v>357</v>
+      </c>
       <c r="AB346">
         <v>2</v>
       </c>
@@ -40124,6 +40142,9 @@
       <c r="Z347" t="s">
         <v>330</v>
       </c>
+      <c r="AA347" t="s">
+        <v>357</v>
+      </c>
       <c r="AB347">
         <v>3</v>
       </c>
@@ -40231,6 +40252,9 @@
       <c r="Z348" t="s">
         <v>330</v>
       </c>
+      <c r="AA348" t="s">
+        <v>357</v>
+      </c>
       <c r="AB348">
         <v>3</v>
       </c>
@@ -40338,6 +40362,9 @@
       <c r="Z349" t="s">
         <v>66</v>
       </c>
+      <c r="AA349" t="s">
+        <v>357</v>
+      </c>
       <c r="AB349">
         <v>3</v>
       </c>
@@ -40445,6 +40472,9 @@
       <c r="Z350" t="s">
         <v>66</v>
       </c>
+      <c r="AA350" t="s">
+        <v>357</v>
+      </c>
       <c r="AB350">
         <v>3</v>
       </c>
@@ -40552,6 +40582,9 @@
       <c r="Z351" t="s">
         <v>66</v>
       </c>
+      <c r="AA351" t="s">
+        <v>357</v>
+      </c>
       <c r="AB351">
         <f t="shared" ref="AB351:AB374" si="0">31/12</f>
         <v>2.5833333333333335</v>
@@ -40660,6 +40693,9 @@
       <c r="Z352" t="s">
         <v>66</v>
       </c>
+      <c r="AA352" t="s">
+        <v>357</v>
+      </c>
       <c r="AB352">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -40768,6 +40804,9 @@
       <c r="Z353" t="s">
         <v>66</v>
       </c>
+      <c r="AA353" t="s">
+        <v>357</v>
+      </c>
       <c r="AB353">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -40876,6 +40915,9 @@
       <c r="Z354" t="s">
         <v>66</v>
       </c>
+      <c r="AA354" t="s">
+        <v>357</v>
+      </c>
       <c r="AB354">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -40984,6 +41026,9 @@
       <c r="Z355" t="s">
         <v>66</v>
       </c>
+      <c r="AA355" t="s">
+        <v>357</v>
+      </c>
       <c r="AB355">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -41093,6 +41138,9 @@
       <c r="Z356" t="s">
         <v>66</v>
       </c>
+      <c r="AA356" t="s">
+        <v>357</v>
+      </c>
       <c r="AB356">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -41202,6 +41250,9 @@
       <c r="Z357" t="s">
         <v>66</v>
       </c>
+      <c r="AA357" t="s">
+        <v>357</v>
+      </c>
       <c r="AB357">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -41311,6 +41362,9 @@
       <c r="Z358" t="s">
         <v>66</v>
       </c>
+      <c r="AA358" t="s">
+        <v>357</v>
+      </c>
       <c r="AB358">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -41420,6 +41474,9 @@
       <c r="Z359" t="s">
         <v>66</v>
       </c>
+      <c r="AA359" t="s">
+        <v>357</v>
+      </c>
       <c r="AB359">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -41528,6 +41585,9 @@
       <c r="Z360" t="s">
         <v>66</v>
       </c>
+      <c r="AA360" t="s">
+        <v>357</v>
+      </c>
       <c r="AB360">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -41636,6 +41696,9 @@
       <c r="Z361" t="s">
         <v>66</v>
       </c>
+      <c r="AA361" t="s">
+        <v>357</v>
+      </c>
       <c r="AB361">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -41744,6 +41807,9 @@
       <c r="Z362" t="s">
         <v>66</v>
       </c>
+      <c r="AA362" t="s">
+        <v>357</v>
+      </c>
       <c r="AB362">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -41852,6 +41918,9 @@
       <c r="Z363" t="s">
         <v>66</v>
       </c>
+      <c r="AA363" t="s">
+        <v>357</v>
+      </c>
       <c r="AB363">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -41960,6 +42029,9 @@
       <c r="Z364" t="s">
         <v>66</v>
       </c>
+      <c r="AA364" t="s">
+        <v>357</v>
+      </c>
       <c r="AB364">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -42068,6 +42140,9 @@
       <c r="Z365" t="s">
         <v>66</v>
       </c>
+      <c r="AA365" t="s">
+        <v>357</v>
+      </c>
       <c r="AB365">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -42176,6 +42251,9 @@
       <c r="Z366" t="s">
         <v>66</v>
       </c>
+      <c r="AA366" t="s">
+        <v>357</v>
+      </c>
       <c r="AB366">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -42284,6 +42362,9 @@
       <c r="Z367" t="s">
         <v>66</v>
       </c>
+      <c r="AA367" t="s">
+        <v>357</v>
+      </c>
       <c r="AB367">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -42392,6 +42473,9 @@
       <c r="Z368" t="s">
         <v>330</v>
       </c>
+      <c r="AA368" t="s">
+        <v>357</v>
+      </c>
       <c r="AB368">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -42500,6 +42584,9 @@
       <c r="Z369" t="s">
         <v>66</v>
       </c>
+      <c r="AA369" t="s">
+        <v>357</v>
+      </c>
       <c r="AB369">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -42609,6 +42696,9 @@
       <c r="Z370" t="s">
         <v>330</v>
       </c>
+      <c r="AA370" t="s">
+        <v>357</v>
+      </c>
       <c r="AB370">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -42718,6 +42808,9 @@
       <c r="Z371" t="s">
         <v>66</v>
       </c>
+      <c r="AA371" t="s">
+        <v>357</v>
+      </c>
       <c r="AB371">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -42826,6 +42919,9 @@
       <c r="Z372" t="s">
         <v>330</v>
       </c>
+      <c r="AA372" t="s">
+        <v>357</v>
+      </c>
       <c r="AB372">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -42934,6 +43030,9 @@
       <c r="Z373" t="s">
         <v>66</v>
       </c>
+      <c r="AA373" t="s">
+        <v>357</v>
+      </c>
       <c r="AB373">
         <f t="shared" si="0"/>
         <v>2.5833333333333335</v>
@@ -43042,6 +43141,9 @@
       </c>
       <c r="Z374" t="s">
         <v>330</v>
+      </c>
+      <c r="AA374" t="s">
+        <v>357</v>
       </c>
       <c r="AB374">
         <f t="shared" si="0"/>
